--- a/总评审/绩效考评/SE2018春-G09-lpc绩效考核_总评审.xlsx
+++ b/总评审/绩效考评/SE2018春-G09-lpc绩效考核_总评审.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zucc409\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\软件工程基础\base\DevelopDoc\总评审\绩效考评\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="绩效" sheetId="1" r:id="rId1"/>
@@ -390,6 +390,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,48 +449,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,485 +727,544 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="18.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
     <col min="9" max="16382" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:8" ht="30.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="8" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="2:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="2:8" ht="30.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="2:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19">
         <v>40</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="24">
+      <c r="G4" s="19"/>
+      <c r="H4" s="16">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="22"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="2:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="22"/>
-      <c r="C6" s="12" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="2:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="23"/>
-      <c r="C7" s="12" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="2:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="22" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19">
         <v>20</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="24">
+      <c r="G8" s="19"/>
+      <c r="H8" s="16">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="22"/>
-      <c r="C9" s="12" t="s">
+    <row r="9" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="22"/>
-      <c r="C10" s="12" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="23"/>
-      <c r="C11" s="12" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="22" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19">
         <v>10</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="24">
+      <c r="G12" s="19"/>
+      <c r="H12" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="22"/>
-      <c r="C13" s="12" t="s">
+    <row r="13" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="22"/>
-      <c r="C14" s="12" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19">
         <v>7</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="22"/>
-      <c r="C15" s="12" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="23"/>
-      <c r="C16" s="12" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="22" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19">
         <v>10</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="24">
+      <c r="G17" s="19"/>
+      <c r="H17" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="22"/>
-      <c r="C18" s="12" t="s">
+    <row r="18" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="22"/>
-      <c r="C19" s="12" t="s">
+      <c r="G18" s="19"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19">
         <v>7</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="22"/>
-      <c r="C20" s="12" t="s">
+      <c r="G19" s="19"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="23"/>
-      <c r="C21" s="12" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="22" t="s">
+      <c r="G21" s="19"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19">
         <v>10</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="24">
+      <c r="G22" s="19"/>
+      <c r="H22" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="22"/>
-      <c r="C23" s="12" t="s">
+    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13" t="s">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="22"/>
-      <c r="C24" s="12" t="s">
+      <c r="G23" s="19"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19">
         <v>7</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="22"/>
-      <c r="C25" s="12" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="23"/>
-      <c r="C26" s="12" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22" t="s">
+      <c r="G26" s="19"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19">
         <v>10</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="24">
+      <c r="G27" s="19"/>
+      <c r="H27" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="12" t="s">
+    <row r="28" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13" t="s">
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="22"/>
-      <c r="C29" s="12" t="s">
+      <c r="G28" s="19"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19">
         <v>7</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="22"/>
-      <c r="C30" s="12" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13" t="s">
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="23"/>
-      <c r="C31" s="12" t="s">
+      <c r="G30" s="19"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13" t="s">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="25"/>
-    </row>
-    <row r="32" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="14" t="s">
+      <c r="G31" s="19"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="2:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="2:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="C34:H34"/>
@@ -1222,65 +1281,6 @@
     <mergeCell ref="H22:H26"/>
     <mergeCell ref="H27:H31"/>
     <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
